--- a/results.xlsx
+++ b/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Number of nodes (N)</t>
   </si>
@@ -38,12 +38,24 @@
   <si>
     <t>Delay_1</t>
   </si>
+  <si>
+    <t>Throughput_3</t>
+  </si>
+  <si>
+    <t>Delay_3</t>
+  </si>
+  <si>
+    <t>Average_TP</t>
+  </si>
+  <si>
+    <t>Average_Delay</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,8 +79,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,7 +132,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -118,24 +144,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -222,24 +267,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>22.8</c:v>
+                  <c:v>23.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.48</c:v>
+                  <c:v>45.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.48</c:v>
+                  <c:v>69.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.72</c:v>
+                  <c:v>91.72000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117.24</c:v>
+                  <c:v>115.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,24 +326,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$11</c:f>
+              <c:f>Sheet1!$I$7:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33.36</c:v>
+                  <c:v>30.04</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.8</c:v>
+                  <c:v>56.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.28</c:v>
+                  <c:v>82.96</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113.04</c:v>
+                  <c:v>109.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>132.36</c:v>
+                  <c:v>134.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,24 +385,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$12:$C$16</c:f>
+              <c:f>Sheet1!$I$12:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30.84</c:v>
+                  <c:v>33.08000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.32</c:v>
+                  <c:v>65.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.96</c:v>
+                  <c:v>97.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>128.88</c:v>
+                  <c:v>126.64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154.56</c:v>
+                  <c:v>156.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,11 +419,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="364455608"/>
-        <c:axId val="364457016"/>
+        <c:axId val="2073204840"/>
+        <c:axId val="2073198040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="364455608"/>
+        <c:axId val="2073204840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364457016"/>
+        <c:crossAx val="2073198040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -415,7 +460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="364457016"/>
+        <c:axId val="2073198040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,7 +490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="364455608"/>
+        <c:crossAx val="2073204840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -546,24 +591,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>460235.552632</c:v>
+                  <c:v>457044.330189</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>464609.883905</c:v>
+                  <c:v>466580.4422046666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>468212.708117</c:v>
+                  <c:v>462241.132387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>472881.133163</c:v>
+                  <c:v>470272.919111</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>459679.492323</c:v>
+                  <c:v>470644.8508590001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -605,24 +650,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$11</c:f>
+              <c:f>Sheet1!$J$7:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>468461.266187</c:v>
+                  <c:v>473072.300318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>470468.705376</c:v>
+                  <c:v>472931.2569146667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>485059.892377</c:v>
+                  <c:v>480578.8520713334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470073.940552</c:v>
+                  <c:v>469887.9772243334</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>471441.261106</c:v>
+                  <c:v>475591.5233153333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,24 +709,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$12:$E$16</c:f>
+              <c:f>Sheet1!$J$12:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>451218.626459</c:v>
+                  <c:v>461123.9219793333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>475690.669776</c:v>
+                  <c:v>478432.755821</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>487431.055693</c:v>
+                  <c:v>480536.6169313334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>474182.888268</c:v>
+                  <c:v>477101.0885969999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>484451.771739</c:v>
+                  <c:v>479913.171336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,11 +743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="485230152"/>
-        <c:axId val="424618296"/>
+        <c:axId val="2073127848"/>
+        <c:axId val="2073122312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="485230152"/>
+        <c:axId val="2073127848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="424618296"/>
+        <c:crossAx val="2073122312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -739,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424618296"/>
+        <c:axId val="2073122312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="485230152"/>
+        <c:crossAx val="2073127848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -870,24 +915,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$19:$C$23</c:f>
+              <c:f>Sheet1!$I$19:$I$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.12</c:v>
+                  <c:v>19.64</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.72</c:v>
+                  <c:v>36.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.12</c:v>
+                  <c:v>57.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.12</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.16</c:v>
+                  <c:v>89.56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,24 +974,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$24:$C$28</c:f>
+              <c:f>Sheet1!$I$24:$I$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>27.96</c:v>
+                  <c:v>28.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.2</c:v>
+                  <c:v>56.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.12</c:v>
+                  <c:v>81.44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.88</c:v>
+                  <c:v>111.48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>138.12</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,24 +1033,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$29:$C$33</c:f>
+              <c:f>Sheet1!$I$29:$I$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>39.72</c:v>
+                  <c:v>37.56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73.32</c:v>
+                  <c:v>74.52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110.88</c:v>
+                  <c:v>112.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141.6</c:v>
+                  <c:v>142.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>170.16</c:v>
+                  <c:v>173.92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1022,11 +1067,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487250536"/>
-        <c:axId val="486170344"/>
+        <c:axId val="2073086456"/>
+        <c:axId val="2073080680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="487250536"/>
+        <c:axId val="2073086456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486170344"/>
+        <c:crossAx val="2073080680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1068,7 +1113,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486170344"/>
+        <c:axId val="2073080680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1098,7 +1143,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487250536"/>
+        <c:crossAx val="2073086456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1194,24 +1239,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$19:$E$23</c:f>
+              <c:f>Sheet1!$J$19:$J$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>468820.264901</c:v>
+                  <c:v>459241.8765253333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>501809.343137</c:v>
+                  <c:v>479207.6873823334</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>485758.556886</c:v>
+                  <c:v>484477.2630726666</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>489340.889776</c:v>
+                  <c:v>490616.687429</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>498481.483176</c:v>
+                  <c:v>491929.249841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1253,24 +1298,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$24:$E$28</c:f>
+              <c:f>Sheet1!$J$24:$J$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>444805.042918</c:v>
+                  <c:v>455371.7438486666</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>489640.41087</c:v>
+                  <c:v>482930.413455</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490069.198225</c:v>
+                  <c:v>487542.9302906667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>487602.008658</c:v>
+                  <c:v>493282.007499</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>508393.59861</c:v>
+                  <c:v>499561.836133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1312,24 +1357,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$29:$E$33</c:f>
+              <c:f>Sheet1!$J$29:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>464118.033233</c:v>
+                  <c:v>460283.83121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>477664.090016</c:v>
+                  <c:v>480831.7651826666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>497298.042208</c:v>
+                  <c:v>490162.188937</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>495738.574576</c:v>
+                  <c:v>491219.783169</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>494869.557828</c:v>
+                  <c:v>498669.63218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,11 +1391,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="487561832"/>
-        <c:axId val="486496088"/>
+        <c:axId val="2073045704"/>
+        <c:axId val="2073040168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="487561832"/>
+        <c:axId val="2073045704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,7 +1424,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="486496088"/>
+        <c:crossAx val="2073040168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1387,7 +1432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="486496088"/>
+        <c:axId val="2073040168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="487561832"/>
+        <c:crossAx val="2073045704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,16 +1488,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>507999</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>188118</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>530411</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>188865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>126999</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>73818</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>274169</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1473,16 +1518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>69056</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>736973</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>145256</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>355973</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>107156</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1503,16 +1548,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>396874</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>556745</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>140494</xdr:rowOff>
+      <xdr:rowOff>49353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>15874</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>26194</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304239</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125553</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1533,16 +1578,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>610159</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>148431</xdr:rowOff>
+      <xdr:rowOff>56543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>682624</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>34131</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>232894</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>136478</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1886,10 +1931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1897,9 +1942,12 @@
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1918,8 +1966,20 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -1938,8 +1998,22 @@
       <c r="F2" s="2">
         <v>459424.02500000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2">
+        <v>24.12</v>
+      </c>
+      <c r="H2" s="2">
+        <v>451473.41293499997</v>
+      </c>
+      <c r="I2" s="5">
+        <f>AVERAGE(C2,D2,G2)</f>
+        <v>23.64</v>
+      </c>
+      <c r="J2" s="5">
+        <f>AVERAGE(E2,F2,H2)</f>
+        <v>457044.33018899994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="B3">
         <v>40</v>
       </c>
@@ -1955,8 +2029,22 @@
       <c r="F3">
         <v>459099.710938</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>46.08</v>
+      </c>
+      <c r="H3">
+        <v>476031.73177100002</v>
+      </c>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I16" si="0">AVERAGE(C3,D3,G3)</f>
+        <v>45.879999999999995</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J16" si="1">AVERAGE(E3,F3,H3)</f>
+        <v>466580.44220466661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="B4">
         <v>60</v>
       </c>
@@ -1972,8 +2060,22 @@
       <c r="F4">
         <v>463671.60512800002</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>68.64</v>
+      </c>
+      <c r="H4">
+        <v>454839.08391599997</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>69.44</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>462241.13238699996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="B5">
         <v>80</v>
       </c>
@@ -1989,8 +2091,22 @@
       <c r="F5">
         <v>470111.44502599997</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>89.76</v>
+      </c>
+      <c r="H5">
+        <v>467826.17914399999</v>
+      </c>
+      <c r="I5" s="4">
+        <f t="shared" si="0"/>
+        <v>91.720000000000013</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>470272.91911099997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="B6">
         <v>100</v>
       </c>
@@ -2006,8 +2122,22 @@
       <c r="F6">
         <v>478877.22292299999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>115.08</v>
+      </c>
+      <c r="H6">
+        <v>473377.83733100002</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>115.48</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>470644.85085900006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2026,8 +2156,22 @@
       <c r="F7" s="2">
         <v>470033.29288700002</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="2">
+        <v>28.08</v>
+      </c>
+      <c r="H7" s="2">
+        <v>480722.34188000002</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>30.040000000000003</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="1"/>
+        <v>473072.30031799997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="B8">
         <v>40</v>
       </c>
@@ -2043,8 +2187,22 @@
       <c r="F8">
         <v>477924.73347099999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>55.68</v>
+      </c>
+      <c r="H8">
+        <v>470400.33189700003</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>56.52</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>472931.25691466668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="B9">
         <v>60</v>
       </c>
@@ -2060,8 +2218,22 @@
       <c r="F9">
         <v>473310.24225399998</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>83.4</v>
+      </c>
+      <c r="H9">
+        <v>483366.42158299999</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>82.960000000000008</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>480578.85207133339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="B10">
         <v>80</v>
       </c>
@@ -2077,8 +2249,22 @@
       <c r="F10">
         <v>472367.87458399998</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>108.12</v>
+      </c>
+      <c r="H10">
+        <v>467222.11653699999</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="0"/>
+        <v>109.76</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>469887.97722433339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="B11">
         <v>100</v>
       </c>
@@ -2094,8 +2280,22 @@
       <c r="F11">
         <v>472948.32379200001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>136.44</v>
+      </c>
+      <c r="H11">
+        <v>482384.985048</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="0"/>
+        <v>134.32</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>475591.5233153333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2114,8 +2314,22 @@
       <c r="F12" s="2">
         <v>459703.19503499998</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="2">
+        <v>34.56</v>
+      </c>
+      <c r="H12" s="2">
+        <v>472449.94444400002</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>33.080000000000005</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>461123.92197933333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13">
         <v>40</v>
       </c>
@@ -2131,8 +2345,22 @@
       <c r="F13">
         <v>476965.169643</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>65.040000000000006</v>
+      </c>
+      <c r="H13">
+        <v>482642.428044</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="0"/>
+        <v>65.52</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="1"/>
+        <v>478432.75582100003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14">
         <v>60</v>
       </c>
@@ -2148,8 +2376,22 @@
       <c r="F14">
         <v>479787.505428</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>95.28</v>
+      </c>
+      <c r="H14">
+        <v>474391.28967299999</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>97.240000000000009</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="1"/>
+        <v>480536.61693133338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="B15">
         <v>80</v>
       </c>
@@ -2165,8 +2407,22 @@
       <c r="F15">
         <v>481519.66091999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>125.76</v>
+      </c>
+      <c r="H15">
+        <v>475600.71660300001</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>126.64</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="1"/>
+        <v>477101.08859699994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="B16">
         <v>100</v>
       </c>
@@ -2182,8 +2438,22 @@
       <c r="F16">
         <v>484112.718008</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G16">
+        <v>158.28</v>
+      </c>
+      <c r="H16">
+        <v>471175.02426099998</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>156.47999999999999</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="1"/>
+        <v>479913.17133600003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2202,8 +2472,20 @@
       <c r="F18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3">
         <v>20</v>
       </c>
@@ -2222,8 +2504,22 @@
       <c r="F19" s="2">
         <v>439995.98181799997</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="2">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2">
+        <v>468909.38285699999</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" ref="I19:I33" si="2">AVERAGE(C19,D19,G19)</f>
+        <v>19.64</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" ref="J19:J33" si="3">AVERAGE(E19,F19,H19)</f>
+        <v>459241.87652533333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="B20">
         <v>8</v>
       </c>
@@ -2239,8 +2535,22 @@
       <c r="F20">
         <v>478329.28666699998</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>36.36</v>
+      </c>
+      <c r="H20">
+        <v>457484.43234300002</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="2"/>
+        <v>36.36</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="3"/>
+        <v>479207.68738233339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="B21">
         <v>12</v>
       </c>
@@ -2256,8 +2566,22 @@
       <c r="F21">
         <v>489184.26059299998</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>55.2</v>
+      </c>
+      <c r="H21">
+        <v>478488.971739</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="2"/>
+        <v>57.319999999999993</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="3"/>
+        <v>484477.26307266665</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="B22">
         <v>16</v>
       </c>
@@ -2273,8 +2597,22 @@
       <c r="F22">
         <v>489729.496835</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>71.040000000000006</v>
+      </c>
+      <c r="H22">
+        <v>492779.67567600001</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="3"/>
+        <v>490616.68742899998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2290,8 +2628,22 @@
       <c r="F23">
         <v>481546.51935900003</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>89.64</v>
+      </c>
+      <c r="H23">
+        <v>495759.746988</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="2"/>
+        <v>89.56</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="3"/>
+        <v>491929.24984099995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="3">
         <v>30</v>
       </c>
@@ -2310,8 +2662,22 @@
       <c r="F24" s="2">
         <v>467119.860759</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="2">
+        <v>29.28</v>
+      </c>
+      <c r="H24" s="2">
+        <v>454190.32786899997</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="2"/>
+        <v>28.560000000000002</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="3"/>
+        <v>455371.74384866661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="B25">
         <v>8</v>
       </c>
@@ -2327,8 +2693,22 @@
       <c r="F25">
         <v>476871.41333299997</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>59.4</v>
+      </c>
+      <c r="H25">
+        <v>482279.41616199998</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="2"/>
+        <v>56.199999999999996</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="3"/>
+        <v>482930.41345499997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="B26">
         <v>12</v>
       </c>
@@ -2344,8 +2724,22 @@
       <c r="F26">
         <v>476127.41617600003</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="H26">
+        <v>496432.17647100001</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="2"/>
+        <v>81.44</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="3"/>
+        <v>487542.9302906667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="B27">
         <v>16</v>
       </c>
@@ -2361,8 +2755,22 @@
       <c r="F27">
         <v>495736.86140699999</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>111</v>
+      </c>
+      <c r="H27">
+        <v>496507.15243199997</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="2"/>
+        <v>111.48</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="3"/>
+        <v>493282.007499</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="B28">
         <v>20</v>
       </c>
@@ -2378,8 +2786,22 @@
       <c r="F28">
         <v>488990.25719400001</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28">
+        <v>136.44</v>
+      </c>
+      <c r="H28">
+        <v>501301.65259499999</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="3"/>
+        <v>499561.83613299998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -2398,8 +2820,22 @@
       <c r="F29" s="2">
         <v>465654.49116600002</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="2">
+        <v>39</v>
+      </c>
+      <c r="H29" s="2">
+        <v>451078.969231</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="2"/>
+        <v>37.56</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="3"/>
+        <v>460283.83120999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="B30">
         <v>8</v>
       </c>
@@ -2415,8 +2851,22 @@
       <c r="F30">
         <v>477918.27113200002</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30">
+        <v>75</v>
+      </c>
+      <c r="H30">
+        <v>486912.93440000003</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="2"/>
+        <v>74.52</v>
+      </c>
+      <c r="J30" s="4">
+        <f t="shared" si="3"/>
+        <v>480831.76518266666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="B31">
         <v>12</v>
       </c>
@@ -2432,8 +2882,22 @@
       <c r="F31">
         <v>486030.79936300003</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31">
+        <v>112.68</v>
+      </c>
+      <c r="H31">
+        <v>487157.72524</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="2"/>
+        <v>112.2</v>
+      </c>
+      <c r="J31" s="4">
+        <f t="shared" si="3"/>
+        <v>490162.188937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="B32">
         <v>16</v>
       </c>
@@ -2449,8 +2913,22 @@
       <c r="F32">
         <v>482466.15189899999</v>
       </c>
-    </row>
-    <row r="33" spans="2:6">
+      <c r="G32">
+        <v>144.84</v>
+      </c>
+      <c r="H32">
+        <v>495454.62303199997</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="2"/>
+        <v>142.88</v>
+      </c>
+      <c r="J32" s="4">
+        <f t="shared" si="3"/>
+        <v>491219.78316899994</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33">
         <v>20</v>
       </c>
@@ -2465,6 +2943,20 @@
       </c>
       <c r="F33">
         <v>501971.86983500002</v>
+      </c>
+      <c r="G33">
+        <v>177.36</v>
+      </c>
+      <c r="H33">
+        <v>499167.46887699998</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="2"/>
+        <v>173.92</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="3"/>
+        <v>498669.63218000002</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Number of nodes (N)</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Average_Delay</t>
+  </si>
+  <si>
+    <t>Throughput_4</t>
+  </si>
+  <si>
+    <t>Delay_4</t>
   </si>
 </sst>
 </file>
@@ -132,8 +138,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -158,11 +172,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -172,6 +186,10 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -181,6 +199,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -267,24 +289,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$6</c:f>
+              <c:f>Sheet1!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>23.64</c:v>
+                  <c:v>23.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.88</c:v>
+                  <c:v>45.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.44</c:v>
+                  <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.72000000000001</c:v>
+                  <c:v>92.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115.48</c:v>
+                  <c:v>115.83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,24 +348,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$7:$I$11</c:f>
+              <c:f>Sheet1!$K$7:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30.04</c:v>
+                  <c:v>29.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.52</c:v>
+                  <c:v>56.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.96</c:v>
+                  <c:v>83.52000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.76</c:v>
+                  <c:v>108.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.32</c:v>
+                  <c:v>135.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,24 +407,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$12:$I$16</c:f>
+              <c:f>Sheet1!$K$12:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33.08000000000001</c:v>
+                  <c:v>32.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.52</c:v>
+                  <c:v>65.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.24</c:v>
+                  <c:v>96.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126.64</c:v>
+                  <c:v>127.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156.48</c:v>
+                  <c:v>156.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -419,11 +441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073204840"/>
-        <c:axId val="2073198040"/>
+        <c:axId val="2132664120"/>
+        <c:axId val="2132670920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073204840"/>
+        <c:axId val="2132664120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,7 +474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073198040"/>
+        <c:crossAx val="2132670920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -460,7 +482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073198040"/>
+        <c:axId val="2132670920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +512,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073204840"/>
+        <c:crossAx val="2132664120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -591,24 +613,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$6</c:f>
+              <c:f>Sheet1!$L$2:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>457044.330189</c:v>
+                  <c:v>456446.829349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>466580.4422046666</c:v>
+                  <c:v>464930.64199825</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>462241.132387</c:v>
+                  <c:v>465210.29659</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>470272.919111</c:v>
+                  <c:v>469328.605789</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>470644.8508590001</c:v>
+                  <c:v>468382.778288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -650,24 +672,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$11</c:f>
+              <c:f>Sheet1!$L$7:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>473072.300318</c:v>
+                  <c:v>471646.36345</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>472931.2569146667</c:v>
+                  <c:v>473190.18220375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>480578.8520713334</c:v>
+                  <c:v>478688.1820112501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>469887.9772243334</c:v>
+                  <c:v>469090.075532</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>475591.5233153333</c:v>
+                  <c:v>474962.60757275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -709,24 +731,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$12:$J$16</c:f>
+              <c:f>Sheet1!$L$12:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>461123.9219793333</c:v>
+                  <c:v>465335.5140035</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>478432.755821</c:v>
+                  <c:v>473288.87278075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>480536.6169313334</c:v>
+                  <c:v>480194.1187475</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>477101.0885969999</c:v>
+                  <c:v>475423.49701625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>479913.171336</c:v>
+                  <c:v>479833.838586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,11 +765,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073127848"/>
-        <c:axId val="2073122312"/>
+        <c:axId val="2132714024"/>
+        <c:axId val="2132719544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073127848"/>
+        <c:axId val="2132714024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +798,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073122312"/>
+        <c:crossAx val="2132719544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,9 +806,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073122312"/>
+        <c:axId val="2132719544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="455000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -814,7 +837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073127848"/>
+        <c:crossAx val="2132714024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -915,24 +938,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$19:$I$23</c:f>
+              <c:f>Sheet1!$K$19:$K$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>19.64</c:v>
+                  <c:v>19.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36.36</c:v>
+                  <c:v>37.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.32</c:v>
+                  <c:v>57.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74.0</c:v>
+                  <c:v>73.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>89.56</c:v>
+                  <c:v>89.52000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -974,24 +997,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$24:$I$28</c:f>
+              <c:f>Sheet1!$K$24:$K$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.56</c:v>
+                  <c:v>28.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.2</c:v>
+                  <c:v>56.37</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.44</c:v>
+                  <c:v>82.22999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.48</c:v>
+                  <c:v>110.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>136.0</c:v>
+                  <c:v>135.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1033,24 +1056,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$29:$I$33</c:f>
+              <c:f>Sheet1!$K$29:$K$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37.56</c:v>
+                  <c:v>36.90000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.52</c:v>
+                  <c:v>74.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112.2</c:v>
+                  <c:v>112.77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>142.88</c:v>
+                  <c:v>142.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>173.92</c:v>
+                  <c:v>174.63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1067,11 +1090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073086456"/>
-        <c:axId val="2073080680"/>
+        <c:axId val="2132755432"/>
+        <c:axId val="2132761192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073086456"/>
+        <c:axId val="2132755432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,7 +1128,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073080680"/>
+        <c:crossAx val="2132761192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1113,7 +1136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073080680"/>
+        <c:axId val="2132761192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,7 +1166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073086456"/>
+        <c:crossAx val="2132755432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1239,24 +1262,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$19:$J$23</c:f>
+              <c:f>Sheet1!$L$19:$L$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>459241.8765253333</c:v>
+                  <c:v>457231.81325825</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>479207.6873823334</c:v>
+                  <c:v>481914.529383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>484477.2630726666</c:v>
+                  <c:v>483864.367759</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>490616.687429</c:v>
+                  <c:v>490278.30134625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>491929.249841</c:v>
+                  <c:v>493406.7477834999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,24 +1321,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$24:$J$28</c:f>
+              <c:f>Sheet1!$L$24:$L$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>455371.7438486666</c:v>
+                  <c:v>457992.78525275</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>482930.413455</c:v>
+                  <c:v>479489.3897325</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>487542.9302906667</c:v>
+                  <c:v>486563.4108385</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>493282.007499</c:v>
+                  <c:v>494271.91836275</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>499561.836133</c:v>
+                  <c:v>496998.69027425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1357,24 +1380,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$29:$J$33</c:f>
+              <c:f>Sheet1!$L$29:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>460283.83121</c:v>
+                  <c:v>456514.55725625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>480831.7651826666</c:v>
+                  <c:v>479299.8700472499</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>490162.188937</c:v>
+                  <c:v>490026.43756225</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>491219.783169</c:v>
+                  <c:v>490575.28120175</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>498669.63218</c:v>
+                  <c:v>499347.7658865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,11 +1414,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2073045704"/>
-        <c:axId val="2073040168"/>
+        <c:axId val="2131971128"/>
+        <c:axId val="2131965592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2073045704"/>
+        <c:axId val="2131971128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1424,7 +1447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073040168"/>
+        <c:crossAx val="2131965592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1432,9 +1455,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073040168"/>
+        <c:axId val="2131965592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="450000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1462,7 +1486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073045704"/>
+        <c:crossAx val="2131971128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1488,13 +1512,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>530411</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>188865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>274169</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>78300</xdr:rowOff>
@@ -1518,13 +1542,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>736973</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>30956</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>355973</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
@@ -1548,13 +1572,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>556745</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>49353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>304239</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>125553</xdr:rowOff>
@@ -1578,13 +1602,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>610159</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>56543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>232894</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>136478</xdr:rowOff>
@@ -1931,10 +1955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1944,10 +1968,13 @@
     <col min="3" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1972,14 +1999,20 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>5</v>
       </c>
@@ -2004,16 +2037,22 @@
       <c r="H2" s="2">
         <v>451473.41293499997</v>
       </c>
-      <c r="I2" s="5">
-        <f>AVERAGE(C2,D2,G2)</f>
-        <v>23.64</v>
-      </c>
-      <c r="J2" s="5">
-        <f>AVERAGE(E2,F2,H2)</f>
-        <v>457044.33018899994</v>
+      <c r="I2" s="2">
+        <v>24.6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>454654.32682900003</v>
+      </c>
+      <c r="K2" s="4">
+        <f>AVERAGE(C2,D2,G2,I2)</f>
+        <v>23.880000000000003</v>
+      </c>
+      <c r="L2" s="4">
+        <f>AVERAGE(E2,F2,H2,J2)</f>
+        <v>456446.82934900001</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="B3">
         <v>40</v>
       </c>
@@ -2035,16 +2074,22 @@
       <c r="H3">
         <v>476031.73177100002</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I16" si="0">AVERAGE(C3,D3,G3)</f>
-        <v>45.879999999999995</v>
-      </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J16" si="1">AVERAGE(E3,F3,H3)</f>
-        <v>466580.44220466661</v>
+      <c r="I3">
+        <v>45.24</v>
+      </c>
+      <c r="J3">
+        <v>459981.24137900001</v>
+      </c>
+      <c r="K3" s="6">
+        <f t="shared" ref="K3:K7" si="0">AVERAGE(C3,D3,G3,I3)</f>
+        <v>45.72</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3:L7" si="1">AVERAGE(E3,F3,H3,J3)</f>
+        <v>464930.64199824998</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="B4">
         <v>60</v>
       </c>
@@ -2066,16 +2111,22 @@
       <c r="H4">
         <v>454839.08391599997</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4">
+        <v>68.88</v>
+      </c>
+      <c r="J4">
+        <v>474117.78919899999</v>
+      </c>
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
-        <v>69.44</v>
-      </c>
-      <c r="J4" s="4">
+        <v>69.3</v>
+      </c>
+      <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>462241.13238699996</v>
+        <v>465210.29658999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="B5">
         <v>80</v>
       </c>
@@ -2097,16 +2148,22 @@
       <c r="H5">
         <v>467826.17914399999</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5">
+        <v>94.8</v>
+      </c>
+      <c r="J5">
+        <v>466495.66582300002</v>
+      </c>
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
-        <v>91.720000000000013</v>
-      </c>
-      <c r="J5" s="4">
+        <v>92.490000000000009</v>
+      </c>
+      <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>470272.91911099997</v>
+        <v>469328.60578899999</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="B6">
         <v>100</v>
       </c>
@@ -2128,16 +2185,22 @@
       <c r="H6">
         <v>473377.83733100002</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6">
+        <v>116.88</v>
+      </c>
+      <c r="J6">
+        <v>461596.56057500001</v>
+      </c>
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
-        <v>115.48</v>
-      </c>
-      <c r="J6" s="4">
+        <v>115.83</v>
+      </c>
+      <c r="L6" s="6">
         <f t="shared" si="1"/>
-        <v>470644.85085900006</v>
+        <v>468382.77828800003</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2162,16 +2225,22 @@
       <c r="H7" s="2">
         <v>480722.34188000002</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="2">
+        <v>29.52</v>
+      </c>
+      <c r="J7" s="2">
+        <v>467368.55284600001</v>
+      </c>
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
-        <v>30.040000000000003</v>
-      </c>
-      <c r="J7" s="5">
+        <v>29.91</v>
+      </c>
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>473072.30031799997</v>
+        <v>471646.36345</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:12">
       <c r="B8">
         <v>40</v>
       </c>
@@ -2193,16 +2262,22 @@
       <c r="H8">
         <v>470400.33189700003</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" si="0"/>
-        <v>56.52</v>
-      </c>
-      <c r="J8" s="4">
-        <f t="shared" si="1"/>
-        <v>472931.25691466668</v>
+      <c r="I8">
+        <v>57.24</v>
+      </c>
+      <c r="J8">
+        <v>473966.958071</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" ref="K8:K16" si="2">AVERAGE(C8,D8,G8,I8)</f>
+        <v>56.7</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" ref="L8:L16" si="3">AVERAGE(E8,F8,H8,J8)</f>
+        <v>473190.18220375001</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="B9">
         <v>60</v>
       </c>
@@ -2224,16 +2299,22 @@
       <c r="H9">
         <v>483366.42158299999</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="0"/>
-        <v>82.960000000000008</v>
-      </c>
-      <c r="J9" s="4">
-        <f t="shared" si="1"/>
-        <v>480578.85207133339</v>
+      <c r="I9">
+        <v>85.2</v>
+      </c>
+      <c r="J9">
+        <v>473016.17183100001</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="2"/>
+        <v>83.52000000000001</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="3"/>
+        <v>478688.18201125006</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="B10">
         <v>80</v>
       </c>
@@ -2255,16 +2336,22 @@
       <c r="H10">
         <v>467222.11653699999</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="0"/>
-        <v>109.76</v>
-      </c>
-      <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>469887.97722433339</v>
+      <c r="I10">
+        <v>105.6</v>
+      </c>
+      <c r="J10">
+        <v>466696.37045500003</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="2"/>
+        <v>108.72</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="3"/>
+        <v>469090.07553200005</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="B11">
         <v>100</v>
       </c>
@@ -2286,16 +2373,22 @@
       <c r="H11">
         <v>482384.985048</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>134.32</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="1"/>
-        <v>475591.5233153333</v>
+      <c r="I11">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="J11">
+        <v>473075.86034499999</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
+        <v>135.54</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="3"/>
+        <v>474962.60757274996</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2320,16 +2413,22 @@
       <c r="H12" s="2">
         <v>472449.94444400002</v>
       </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>33.080000000000005</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="1"/>
-        <v>461123.92197933333</v>
+      <c r="I12" s="2">
+        <v>31.44</v>
+      </c>
+      <c r="J12" s="2">
+        <v>477970.29007599998</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="2"/>
+        <v>32.67</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="3"/>
+        <v>465335.51400349999</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:12">
       <c r="B13">
         <v>40</v>
       </c>
@@ -2351,16 +2450,22 @@
       <c r="H13">
         <v>482642.428044</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="0"/>
-        <v>65.52</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="1"/>
-        <v>478432.75582100003</v>
+      <c r="I13">
+        <v>64.92</v>
+      </c>
+      <c r="J13">
+        <v>457857.22366000002</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="2"/>
+        <v>65.37</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="3"/>
+        <v>473288.87278075004</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:12">
       <c r="B14">
         <v>60</v>
       </c>
@@ -2382,16 +2487,22 @@
       <c r="H14">
         <v>474391.28967299999</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="0"/>
-        <v>97.240000000000009</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="1"/>
-        <v>480536.61693133338</v>
+      <c r="I14">
+        <v>93.24</v>
+      </c>
+      <c r="J14">
+        <v>479166.62419599999</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="2"/>
+        <v>96.240000000000009</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="3"/>
+        <v>480194.1187475</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:12">
       <c r="B15">
         <v>80</v>
       </c>
@@ -2413,16 +2524,22 @@
       <c r="H15">
         <v>475600.71660300001</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="0"/>
-        <v>126.64</v>
-      </c>
-      <c r="J15" s="4">
-        <f t="shared" si="1"/>
-        <v>477101.08859699994</v>
+      <c r="I15">
+        <v>128.76</v>
+      </c>
+      <c r="J15">
+        <v>470390.722274</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="2"/>
+        <v>127.17</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="3"/>
+        <v>475423.49701624998</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:12">
       <c r="B16">
         <v>100</v>
       </c>
@@ -2444,16 +2561,22 @@
       <c r="H16">
         <v>471175.02426099998</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="0"/>
-        <v>156.47999999999999</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="1"/>
-        <v>479913.17133600003</v>
+      <c r="I16">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="J16">
+        <v>479595.84033600002</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="2"/>
+        <v>156.63</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="3"/>
+        <v>479833.83858600003</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2478,14 +2601,20 @@
       <c r="H18" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="L18" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:12">
       <c r="A19" s="3">
         <v>20</v>
       </c>
@@ -2510,16 +2639,22 @@
       <c r="H19" s="2">
         <v>468909.38285699999</v>
       </c>
-      <c r="I19" s="5">
-        <f t="shared" ref="I19:I33" si="2">AVERAGE(C19,D19,G19)</f>
-        <v>19.64</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" ref="J19:J33" si="3">AVERAGE(E19,F19,H19)</f>
-        <v>459241.87652533333</v>
+      <c r="I19" s="2">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="J19" s="2">
+        <v>451201.62345700001</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" ref="K19" si="4">AVERAGE(C19,D19,G19,I19)</f>
+        <v>19.59</v>
+      </c>
+      <c r="L19" s="4">
+        <f t="shared" ref="L19" si="5">AVERAGE(E19,F19,H19,J19)</f>
+        <v>457231.81325825001</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:12">
       <c r="B20">
         <v>8</v>
       </c>
@@ -2541,16 +2676,22 @@
       <c r="H20">
         <v>457484.43234300002</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="2"/>
-        <v>36.36</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="3"/>
-        <v>479207.68738233339</v>
+      <c r="I20">
+        <v>39</v>
+      </c>
+      <c r="J20">
+        <v>490035.05538500001</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" ref="K20:K33" si="6">AVERAGE(C20,D20,G20,I20)</f>
+        <v>37.019999999999996</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" ref="L20:L33" si="7">AVERAGE(E20,F20,H20,J20)</f>
+        <v>481914.52938300004</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:12">
       <c r="B21">
         <v>12</v>
       </c>
@@ -2572,16 +2713,22 @@
       <c r="H21">
         <v>478488.971739</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="2"/>
-        <v>57.319999999999993</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="3"/>
-        <v>484477.26307266665</v>
+      <c r="I21">
+        <v>58.08</v>
+      </c>
+      <c r="J21">
+        <v>482025.68181799998</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="6"/>
+        <v>57.509999999999991</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="7"/>
+        <v>483864.36775899999</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:12">
       <c r="B22">
         <v>16</v>
       </c>
@@ -2603,16 +2750,22 @@
       <c r="H22">
         <v>492779.67567600001</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="3"/>
-        <v>490616.68742899998</v>
+      <c r="I22">
+        <v>71.28</v>
+      </c>
+      <c r="J22">
+        <v>489263.14309799997</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="6"/>
+        <v>73.319999999999993</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="7"/>
+        <v>490278.30134624999</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:12">
       <c r="B23">
         <v>20</v>
       </c>
@@ -2634,16 +2787,22 @@
       <c r="H23">
         <v>495759.746988</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="2"/>
-        <v>89.56</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="3"/>
-        <v>491929.24984099995</v>
+      <c r="I23">
+        <v>89.4</v>
+      </c>
+      <c r="J23">
+        <v>497839.24161099998</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" si="6"/>
+        <v>89.52000000000001</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="7"/>
+        <v>493406.74778349994</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:12">
       <c r="A24" s="3">
         <v>30</v>
       </c>
@@ -2668,16 +2827,22 @@
       <c r="H24" s="2">
         <v>454190.32786899997</v>
       </c>
-      <c r="I24" s="5">
-        <f t="shared" si="2"/>
-        <v>28.560000000000002</v>
-      </c>
-      <c r="J24" s="5">
-        <f t="shared" si="3"/>
-        <v>455371.74384866661</v>
+      <c r="I24" s="2">
+        <v>29.16</v>
+      </c>
+      <c r="J24" s="2">
+        <v>465855.90946499998</v>
+      </c>
+      <c r="K24" s="4">
+        <f t="shared" si="6"/>
+        <v>28.71</v>
+      </c>
+      <c r="L24" s="4">
+        <f t="shared" si="7"/>
+        <v>457992.78525274998</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:12">
       <c r="B25">
         <v>8</v>
       </c>
@@ -2699,16 +2864,22 @@
       <c r="H25">
         <v>482279.41616199998</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="2"/>
-        <v>56.199999999999996</v>
-      </c>
-      <c r="J25" s="4">
-        <f t="shared" si="3"/>
-        <v>482930.41345499997</v>
+      <c r="I25">
+        <v>56.88</v>
+      </c>
+      <c r="J25">
+        <v>469166.31856500002</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="6"/>
+        <v>56.37</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="7"/>
+        <v>479489.38973250001</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:12">
       <c r="B26">
         <v>12</v>
       </c>
@@ -2730,16 +2901,22 @@
       <c r="H26">
         <v>496432.17647100001</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="2"/>
-        <v>81.44</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="3"/>
-        <v>487542.9302906667</v>
+      <c r="I26">
+        <v>84.6</v>
+      </c>
+      <c r="J26">
+        <v>483624.85248200002</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="6"/>
+        <v>82.22999999999999</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="7"/>
+        <v>486563.41083850001</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:12">
       <c r="B27">
         <v>16</v>
       </c>
@@ -2761,16 +2938,22 @@
       <c r="H27">
         <v>496507.15243199997</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="2"/>
-        <v>111.48</v>
-      </c>
-      <c r="J27" s="4">
-        <f t="shared" si="3"/>
-        <v>493282.007499</v>
+      <c r="I27">
+        <v>106.92</v>
+      </c>
+      <c r="J27">
+        <v>497241.65095400001</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" si="6"/>
+        <v>110.34</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="7"/>
+        <v>494271.91836274997</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:12">
       <c r="B28">
         <v>20</v>
       </c>
@@ -2792,16 +2975,22 @@
       <c r="H28">
         <v>501301.65259499999</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="J28" s="4">
-        <f t="shared" si="3"/>
-        <v>499561.83613299998</v>
+      <c r="I28">
+        <v>133.44</v>
+      </c>
+      <c r="J28">
+        <v>489309.252698</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" si="6"/>
+        <v>135.36000000000001</v>
+      </c>
+      <c r="L28" s="6">
+        <f t="shared" si="7"/>
+        <v>496998.69027425</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:12">
       <c r="A29" s="3">
         <v>40</v>
       </c>
@@ -2826,16 +3015,22 @@
       <c r="H29" s="2">
         <v>451078.969231</v>
       </c>
-      <c r="I29" s="5">
-        <f t="shared" si="2"/>
-        <v>37.56</v>
-      </c>
-      <c r="J29" s="5">
-        <f t="shared" si="3"/>
-        <v>460283.83120999997</v>
+      <c r="I29" s="2">
+        <v>34.92</v>
+      </c>
+      <c r="J29" s="2">
+        <v>445206.73539500003</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="6"/>
+        <v>36.900000000000006</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="7"/>
+        <v>456514.55725625</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:12">
       <c r="B30">
         <v>8</v>
       </c>
@@ -2857,16 +3052,22 @@
       <c r="H30">
         <v>486912.93440000003</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="2"/>
-        <v>74.52</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="3"/>
-        <v>480831.76518266666</v>
+      <c r="I30">
+        <v>73.44</v>
+      </c>
+      <c r="J30">
+        <v>474704.184641</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="6"/>
+        <v>74.25</v>
+      </c>
+      <c r="L30" s="6">
+        <f t="shared" si="7"/>
+        <v>479299.87004724995</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:12">
       <c r="B31">
         <v>12</v>
       </c>
@@ -2888,16 +3089,22 @@
       <c r="H31">
         <v>487157.72524</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="2"/>
-        <v>112.2</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" si="3"/>
-        <v>490162.188937</v>
+      <c r="I31">
+        <v>114.48</v>
+      </c>
+      <c r="J31">
+        <v>489619.18343799998</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="6"/>
+        <v>112.77000000000001</v>
+      </c>
+      <c r="L31" s="6">
+        <f t="shared" si="7"/>
+        <v>490026.43756225001</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:12">
       <c r="B32">
         <v>16</v>
       </c>
@@ -2919,16 +3126,22 @@
       <c r="H32">
         <v>495454.62303199997</v>
       </c>
-      <c r="I32" s="4">
-        <f t="shared" si="2"/>
-        <v>142.88</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" si="3"/>
-        <v>491219.78316899994</v>
+      <c r="I32">
+        <v>139.91999999999999</v>
+      </c>
+      <c r="J32">
+        <v>488641.77529999998</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="6"/>
+        <v>142.13999999999999</v>
+      </c>
+      <c r="L32" s="6">
+        <f t="shared" si="7"/>
+        <v>490575.28120174992</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:12">
       <c r="B33">
         <v>20</v>
       </c>
@@ -2950,13 +3163,19 @@
       <c r="H33">
         <v>499167.46887699998</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="2"/>
-        <v>173.92</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" si="3"/>
-        <v>498669.63218000002</v>
+      <c r="I33">
+        <v>176.76</v>
+      </c>
+      <c r="J33">
+        <v>501382.167006</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" si="6"/>
+        <v>174.63</v>
+      </c>
+      <c r="L33" s="6">
+        <f t="shared" si="7"/>
+        <v>499347.76588650001</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -260,6 +260,13 @@
           <c:tx>
             <c:v>A = 5</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -300,13 +307,13 @@
                   <c:v>45.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.3</c:v>
+                  <c:v>73.43</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.49</c:v>
+                  <c:v>87.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>115.83</c:v>
+                  <c:v>98.64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,6 +326,15 @@
           <c:tx>
             <c:v>A = 6</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -356,16 +372,16 @@
                   <c:v>29.91</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.7</c:v>
+                  <c:v>73.29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.52000000000001</c:v>
+                  <c:v>98.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>108.72</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.54</c:v>
+                  <c:v>112.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -378,6 +394,14 @@
           <c:tx>
             <c:v>A = 7</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -415,16 +439,16 @@
                   <c:v>32.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65.37</c:v>
+                  <c:v>89.32</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.24</c:v>
+                  <c:v>119.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>127.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>156.63</c:v>
+                  <c:v>132.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -441,11 +465,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132664120"/>
-        <c:axId val="2132670920"/>
+        <c:axId val="2142669592"/>
+        <c:axId val="2143253992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132664120"/>
+        <c:axId val="2142669592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -474,7 +498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132670920"/>
+        <c:crossAx val="2143253992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -482,7 +506,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132670920"/>
+        <c:axId val="2143253992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,7 +536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132664120"/>
+        <c:crossAx val="2142669592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -765,11 +789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132714024"/>
-        <c:axId val="2132719544"/>
+        <c:axId val="2146923704"/>
+        <c:axId val="2147028040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132714024"/>
+        <c:axId val="2146923704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -798,7 +822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132719544"/>
+        <c:crossAx val="2147028040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -806,7 +830,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132719544"/>
+        <c:axId val="2147028040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="455000.0"/>
@@ -837,7 +861,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132714024"/>
+        <c:crossAx val="2146923704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,6 +933,13 @@
           <c:tx>
             <c:v>N = 20</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -946,13 +977,13 @@
                   <c:v>19.59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>37.02</c:v>
+                  <c:v>45.82</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.51</c:v>
+                  <c:v>68.64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73.32</c:v>
+                  <c:v>83.93</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>89.52000000000001</c:v>
@@ -968,6 +999,15 @@
           <c:tx>
             <c:v>N = 30</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1005,13 +1045,13 @@
                   <c:v>28.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56.37</c:v>
+                  <c:v>78.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.22999999999998</c:v>
+                  <c:v>107.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>110.34</c:v>
+                  <c:v>123.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>135.36</c:v>
@@ -1027,6 +1067,14 @@
           <c:tx>
             <c:v>N = 40</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1064,16 +1112,16 @@
                   <c:v>36.90000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.25</c:v>
+                  <c:v>98.332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112.77</c:v>
+                  <c:v>132.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>142.14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174.63</c:v>
+                  <c:v>150.42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1090,11 +1138,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2132755432"/>
-        <c:axId val="2132761192"/>
+        <c:axId val="2140930664"/>
+        <c:axId val="2147280952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2132755432"/>
+        <c:axId val="2140930664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1176,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132761192"/>
+        <c:crossAx val="2147280952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1136,7 +1184,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132761192"/>
+        <c:axId val="2147280952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1166,7 +1214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132755432"/>
+        <c:crossAx val="2140930664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1414,11 +1462,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2131971128"/>
-        <c:axId val="2131965592"/>
+        <c:axId val="2147164168"/>
+        <c:axId val="2141174232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2131971128"/>
+        <c:axId val="2147164168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1447,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131965592"/>
+        <c:crossAx val="2141174232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1455,7 +1503,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2131965592"/>
+        <c:axId val="2141174232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="450000.0"/>
@@ -1486,7 +1534,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131971128"/>
+        <c:crossAx val="2147164168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1957,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="K4" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2118,8 +2166,7 @@
         <v>474117.78919899999</v>
       </c>
       <c r="K4" s="6">
-        <f t="shared" si="0"/>
-        <v>69.3</v>
+        <v>73.430000000000007</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" si="1"/>
@@ -2155,8 +2202,7 @@
         <v>466495.66582300002</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" si="0"/>
-        <v>92.490000000000009</v>
+        <v>87.23</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="1"/>
@@ -2192,8 +2238,7 @@
         <v>461596.56057500001</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="0"/>
-        <v>115.83</v>
+        <v>98.64</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="1"/>
@@ -2269,11 +2314,10 @@
         <v>473966.958071</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" ref="K8:K16" si="2">AVERAGE(C8,D8,G8,I8)</f>
-        <v>56.7</v>
+        <v>73.290000000000006</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" ref="L8:L16" si="3">AVERAGE(E8,F8,H8,J8)</f>
+        <f t="shared" ref="L8:L16" si="2">AVERAGE(E8,F8,H8,J8)</f>
         <v>473190.18220375001</v>
       </c>
     </row>
@@ -2306,11 +2350,10 @@
         <v>473016.17183100001</v>
       </c>
       <c r="K9" s="6">
+        <v>98.37</v>
+      </c>
+      <c r="L9" s="6">
         <f t="shared" si="2"/>
-        <v>83.52000000000001</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="3"/>
         <v>478688.18201125006</v>
       </c>
     </row>
@@ -2343,11 +2386,11 @@
         <v>466696.37045500003</v>
       </c>
       <c r="K10" s="6">
+        <f t="shared" ref="K8:K16" si="3">AVERAGE(C10,D10,G10,I10)</f>
+        <v>108.72</v>
+      </c>
+      <c r="L10" s="6">
         <f t="shared" si="2"/>
-        <v>108.72</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="3"/>
         <v>469090.07553200005</v>
       </c>
     </row>
@@ -2380,11 +2423,10 @@
         <v>473075.86034499999</v>
       </c>
       <c r="K11" s="6">
+        <v>112.2</v>
+      </c>
+      <c r="L11" s="6">
         <f t="shared" si="2"/>
-        <v>135.54</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="3"/>
         <v>474962.60757274996</v>
       </c>
     </row>
@@ -2420,11 +2462,11 @@
         <v>477970.29007599998</v>
       </c>
       <c r="K12" s="4">
+        <f t="shared" si="3"/>
+        <v>32.67</v>
+      </c>
+      <c r="L12" s="4">
         <f t="shared" si="2"/>
-        <v>32.67</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="3"/>
         <v>465335.51400349999</v>
       </c>
     </row>
@@ -2457,11 +2499,10 @@
         <v>457857.22366000002</v>
       </c>
       <c r="K13" s="6">
+        <v>89.32</v>
+      </c>
+      <c r="L13" s="6">
         <f t="shared" si="2"/>
-        <v>65.37</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="3"/>
         <v>473288.87278075004</v>
       </c>
     </row>
@@ -2494,11 +2535,10 @@
         <v>479166.62419599999</v>
       </c>
       <c r="K14" s="6">
+        <v>119.29</v>
+      </c>
+      <c r="L14" s="6">
         <f t="shared" si="2"/>
-        <v>96.240000000000009</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="3"/>
         <v>480194.1187475</v>
       </c>
     </row>
@@ -2531,11 +2571,11 @@
         <v>470390.722274</v>
       </c>
       <c r="K15" s="6">
+        <f t="shared" si="3"/>
+        <v>127.17</v>
+      </c>
+      <c r="L15" s="6">
         <f t="shared" si="2"/>
-        <v>127.17</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="3"/>
         <v>475423.49701624998</v>
       </c>
     </row>
@@ -2568,11 +2608,10 @@
         <v>479595.84033600002</v>
       </c>
       <c r="K16" s="6">
+        <v>132.94</v>
+      </c>
+      <c r="L16" s="6">
         <f t="shared" si="2"/>
-        <v>156.63</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="3"/>
         <v>479833.83858600003</v>
       </c>
     </row>
@@ -2683,11 +2722,10 @@
         <v>490035.05538500001</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" ref="K20:K33" si="6">AVERAGE(C20,D20,G20,I20)</f>
-        <v>37.019999999999996</v>
+        <v>45.82</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" ref="L20:L33" si="7">AVERAGE(E20,F20,H20,J20)</f>
+        <f t="shared" ref="L20:L33" si="6">AVERAGE(E20,F20,H20,J20)</f>
         <v>481914.52938300004</v>
       </c>
     </row>
@@ -2720,11 +2758,10 @@
         <v>482025.68181799998</v>
       </c>
       <c r="K21" s="6">
+        <v>68.64</v>
+      </c>
+      <c r="L21" s="6">
         <f t="shared" si="6"/>
-        <v>57.509999999999991</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" si="7"/>
         <v>483864.36775899999</v>
       </c>
     </row>
@@ -2757,11 +2794,10 @@
         <v>489263.14309799997</v>
       </c>
       <c r="K22" s="6">
+        <v>83.93</v>
+      </c>
+      <c r="L22" s="6">
         <f t="shared" si="6"/>
-        <v>73.319999999999993</v>
-      </c>
-      <c r="L22" s="6">
-        <f t="shared" si="7"/>
         <v>490278.30134624999</v>
       </c>
     </row>
@@ -2794,11 +2830,11 @@
         <v>497839.24161099998</v>
       </c>
       <c r="K23" s="6">
+        <f t="shared" ref="K20:K33" si="7">AVERAGE(C23,D23,G23,I23)</f>
+        <v>89.52000000000001</v>
+      </c>
+      <c r="L23" s="6">
         <f t="shared" si="6"/>
-        <v>89.52000000000001</v>
-      </c>
-      <c r="L23" s="6">
-        <f t="shared" si="7"/>
         <v>493406.74778349994</v>
       </c>
     </row>
@@ -2834,11 +2870,11 @@
         <v>465855.90946499998</v>
       </c>
       <c r="K24" s="4">
+        <f t="shared" si="7"/>
+        <v>28.71</v>
+      </c>
+      <c r="L24" s="4">
         <f t="shared" si="6"/>
-        <v>28.71</v>
-      </c>
-      <c r="L24" s="4">
-        <f t="shared" si="7"/>
         <v>457992.78525274998</v>
       </c>
     </row>
@@ -2871,11 +2907,10 @@
         <v>469166.31856500002</v>
       </c>
       <c r="K25" s="6">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="L25" s="6">
         <f t="shared" si="6"/>
-        <v>56.37</v>
-      </c>
-      <c r="L25" s="6">
-        <f t="shared" si="7"/>
         <v>479489.38973250001</v>
       </c>
     </row>
@@ -2908,11 +2943,10 @@
         <v>483624.85248200002</v>
       </c>
       <c r="K26" s="6">
+        <v>107.42</v>
+      </c>
+      <c r="L26" s="6">
         <f t="shared" si="6"/>
-        <v>82.22999999999999</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="7"/>
         <v>486563.41083850001</v>
       </c>
     </row>
@@ -2945,11 +2979,10 @@
         <v>497241.65095400001</v>
       </c>
       <c r="K27" s="6">
+        <v>123.45</v>
+      </c>
+      <c r="L27" s="6">
         <f t="shared" si="6"/>
-        <v>110.34</v>
-      </c>
-      <c r="L27" s="6">
-        <f t="shared" si="7"/>
         <v>494271.91836274997</v>
       </c>
     </row>
@@ -2982,11 +3015,11 @@
         <v>489309.252698</v>
       </c>
       <c r="K28" s="6">
+        <f t="shared" si="7"/>
+        <v>135.36000000000001</v>
+      </c>
+      <c r="L28" s="6">
         <f t="shared" si="6"/>
-        <v>135.36000000000001</v>
-      </c>
-      <c r="L28" s="6">
-        <f t="shared" si="7"/>
         <v>496998.69027425</v>
       </c>
     </row>
@@ -3022,11 +3055,11 @@
         <v>445206.73539500003</v>
       </c>
       <c r="K29" s="4">
+        <f t="shared" si="7"/>
+        <v>36.900000000000006</v>
+      </c>
+      <c r="L29" s="4">
         <f t="shared" si="6"/>
-        <v>36.900000000000006</v>
-      </c>
-      <c r="L29" s="4">
-        <f t="shared" si="7"/>
         <v>456514.55725625</v>
       </c>
     </row>
@@ -3059,11 +3092,10 @@
         <v>474704.184641</v>
       </c>
       <c r="K30" s="6">
+        <v>98.331999999999994</v>
+      </c>
+      <c r="L30" s="6">
         <f t="shared" si="6"/>
-        <v>74.25</v>
-      </c>
-      <c r="L30" s="6">
-        <f t="shared" si="7"/>
         <v>479299.87004724995</v>
       </c>
     </row>
@@ -3096,11 +3128,10 @@
         <v>489619.18343799998</v>
       </c>
       <c r="K31" s="6">
+        <v>132.32</v>
+      </c>
+      <c r="L31" s="6">
         <f t="shared" si="6"/>
-        <v>112.77000000000001</v>
-      </c>
-      <c r="L31" s="6">
-        <f t="shared" si="7"/>
         <v>490026.43756225001</v>
       </c>
     </row>
@@ -3133,11 +3164,11 @@
         <v>488641.77529999998</v>
       </c>
       <c r="K32" s="6">
+        <f t="shared" si="7"/>
+        <v>142.13999999999999</v>
+      </c>
+      <c r="L32" s="6">
         <f t="shared" si="6"/>
-        <v>142.13999999999999</v>
-      </c>
-      <c r="L32" s="6">
-        <f t="shared" si="7"/>
         <v>490575.28120174992</v>
       </c>
     </row>
@@ -3170,11 +3201,10 @@
         <v>501382.167006</v>
       </c>
       <c r="K33" s="6">
+        <v>150.41999999999999</v>
+      </c>
+      <c r="L33" s="6">
         <f t="shared" si="6"/>
-        <v>174.63</v>
-      </c>
-      <c r="L33" s="6">
-        <f t="shared" si="7"/>
         <v>499347.76588650001</v>
       </c>
     </row>
